--- a/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,24 +46,24 @@
     <t>waste</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
@@ -76,81 +76,81 @@
     <t>ok</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>interest</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>maybe</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
-    <t>fl</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
@@ -160,7 +160,10 @@
     <t>way</t>
   </si>
   <si>
-    <t>item</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>product</t>
@@ -169,7 +172,7 @@
     <t>made</t>
   </si>
   <si>
-    <t>would</t>
+    <t>toy</t>
   </si>
   <si>
     <t>negative</t>
@@ -178,12 +181,12 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>great</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>family</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>0.6307692307692307</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9662162162162162</v>
+        <v>0.9594594594594594</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>0.46875</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9436619718309859</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.4415584415584415</v>
+        <v>0.453125</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9428571428571428</v>
+        <v>0.941747572815534</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.4086021505376344</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9368932038834952</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C7">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>0.2759336099585062</v>
+        <v>0.2676348547717842</v>
       </c>
       <c r="L7">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M7">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9130434782608695</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.2309899569583931</v>
+        <v>0.2338593974175036</v>
       </c>
       <c r="L8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8978494623655914</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="C9">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.2140672782874618</v>
+        <v>0.1987767584097859</v>
       </c>
       <c r="L9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8863636363636364</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.1427399507793273</v>
+        <v>0.1525840853158326</v>
       </c>
       <c r="L10">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M10">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N10">
         <v>0.99</v>
@@ -1027,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8526315789473684</v>
+        <v>0.8736842105263158</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.1058495821727019</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>321</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7903225806451613</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,31 +1109,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.06883116883116883</v>
+        <v>0.1114206128133705</v>
       </c>
       <c r="L12">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1434</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,31 +1159,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.05696757230499562</v>
+        <v>0.07207792207792207</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1076</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7421875</v>
+        <v>0.765625</v>
       </c>
       <c r="C14">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,7 +1209,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14">
+        <v>0.05959684487291849</v>
+      </c>
+      <c r="L14">
+        <v>68</v>
+      </c>
+      <c r="M14">
+        <v>68</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1073</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.734375</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1237,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7222222222222222</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1255,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1263,13 +1293,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7142857142857143</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1281,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1289,13 +1319,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6571428571428571</v>
+        <v>0.6875</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1307,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1341,13 +1371,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5901639344262295</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1359,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1367,13 +1397,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1385,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1393,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5555555555555556</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="C22">
         <v>35</v>
@@ -1411,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1419,13 +1449,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1448,10 +1478,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1463,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1471,13 +1501,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5476190476190477</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1489,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1497,13 +1527,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4909090909090909</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1515,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1549,13 +1579,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4107142857142857</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1567,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1575,13 +1605,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3814432989690721</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1593,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1601,13 +1631,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3793103448275862</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1619,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1627,13 +1657,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3663366336633663</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="C31">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1645,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>128</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1653,13 +1683,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3623188405797101</v>
+        <v>0.3917525773195876</v>
       </c>
       <c r="C32">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1671,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>220</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1679,13 +1709,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3518518518518519</v>
+        <v>0.3652173913043478</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1697,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>70</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1705,13 +1735,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3478260869565217</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1723,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1731,13 +1761,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3243243243243243</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1749,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>50</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1757,13 +1787,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3012048192771085</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1775,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1783,13 +1813,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2943037974683544</v>
+        <v>0.2879746835443038</v>
       </c>
       <c r="C37">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1801,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1809,13 +1839,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2804878048780488</v>
+        <v>0.2100840336134454</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1827,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1835,13 +1865,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2689075630252101</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1853,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>87</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1861,13 +1891,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.165</v>
+        <v>0.14</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1879,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1887,13 +1917,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1582278481012658</v>
+        <v>0.1360759493670886</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1905,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1913,25 +1943,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1578947368421053</v>
+        <v>0.1352941176470588</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1939,13 +1969,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1376811594202899</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1957,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>238</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1965,25 +1995,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09691629955947137</v>
+        <v>0.09212481426448738</v>
       </c>
       <c r="C44">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D44">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>410</v>
+        <v>611</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1991,13 +2021,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.08517350157728706</v>
+        <v>0.09030837004405286</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2009,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>290</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2017,13 +2047,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.08011869436201781</v>
+        <v>0.0694006309148265</v>
       </c>
       <c r="C46">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2035,7 +2065,33 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>620</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.04274809160305344</v>
+      </c>
+      <c r="C47">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>28</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
